--- a/demo/Matrix_t.xlsx
+++ b/demo/Matrix_t.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="560" windowWidth="28800" windowHeight="16340" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="520" windowWidth="28800" windowHeight="16340" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -344,10 +344,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -532,6 +532,46 @@
         <v>0</v>
       </c>
     </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>-1</v>
+      </c>
+      <c r="B10">
+        <v>6</v>
+      </c>
+      <c r="C10">
+        <v>7</v>
+      </c>
+      <c r="D10">
+        <v>8</v>
+      </c>
+      <c r="E10">
+        <v>10</v>
+      </c>
+      <c r="F10">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>-1</v>
+      </c>
+      <c r="B11">
+        <v>5</v>
+      </c>
+      <c r="C11">
+        <v>6</v>
+      </c>
+      <c r="D11">
+        <v>7</v>
+      </c>
+      <c r="E11">
+        <v>10</v>
+      </c>
+      <c r="F11">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/demo/Matrix_t.xlsx
+++ b/demo/Matrix_t.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yunqizhao/PycharmProjects/CityU/demo/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yunqizhao/PycharmProjects/CS5351/demo/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="520" windowWidth="28800" windowHeight="16340" tabRatio="500"/>
+    <workbookView xWindow="9740" yWindow="520" windowWidth="19060" windowHeight="16340" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -344,95 +344,203 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:O5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="O5" sqref="O5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1">
         <v>1</v>
       </c>
       <c r="B1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1">
+        <v>3</v>
+      </c>
+      <c r="D1">
+        <v>4</v>
+      </c>
+      <c r="E1">
+        <v>5</v>
+      </c>
+      <c r="F1">
+        <v>6</v>
+      </c>
+      <c r="G1">
+        <v>7</v>
+      </c>
+      <c r="H1">
+        <v>8</v>
+      </c>
+      <c r="I1">
+        <v>9</v>
+      </c>
+      <c r="J1">
+        <v>10</v>
+      </c>
+      <c r="K1">
+        <v>11</v>
+      </c>
+      <c r="L1">
+        <v>12</v>
+      </c>
+      <c r="M1">
+        <v>13</v>
+      </c>
+      <c r="N1">
+        <v>14</v>
+      </c>
+      <c r="O1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A2">
         <v>1</v>
-      </c>
-      <c r="D1">
-        <v>1</v>
-      </c>
-      <c r="E1">
-        <v>1</v>
-      </c>
-      <c r="F1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>-1</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>6</v>
+      </c>
+      <c r="G2">
+        <v>7</v>
+      </c>
+      <c r="H2">
+        <v>8</v>
+      </c>
+      <c r="I2">
+        <v>9</v>
+      </c>
+      <c r="J2">
+        <v>10</v>
+      </c>
+      <c r="K2">
+        <v>11</v>
+      </c>
+      <c r="L2">
+        <v>12</v>
+      </c>
+      <c r="M2">
+        <v>13</v>
+      </c>
+      <c r="N2">
+        <v>14</v>
+      </c>
+      <c r="O2">
+        <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1</v>
       </c>
@@ -440,136 +548,43 @@
         <v>1</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>-1</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>1</v>
-      </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>1</v>
-      </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>-1</v>
-      </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>-1</v>
-      </c>
-      <c r="B10">
         <v>6</v>
       </c>
-      <c r="C10">
+      <c r="G5">
         <v>7</v>
       </c>
-      <c r="D10">
+      <c r="H5">
         <v>8</v>
       </c>
-      <c r="E10">
+      <c r="I5">
+        <v>9</v>
+      </c>
+      <c r="J5">
         <v>10</v>
       </c>
-      <c r="F10">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>-1</v>
-      </c>
-      <c r="B11">
-        <v>5</v>
-      </c>
-      <c r="C11">
-        <v>6</v>
-      </c>
-      <c r="D11">
-        <v>7</v>
-      </c>
-      <c r="E11">
-        <v>10</v>
-      </c>
-      <c r="F11">
-        <v>20</v>
+      <c r="K5">
+        <v>11</v>
+      </c>
+      <c r="L5">
+        <v>12</v>
+      </c>
+      <c r="M5">
+        <v>13</v>
+      </c>
+      <c r="N5">
+        <v>14</v>
+      </c>
+      <c r="O5">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
